--- a/design/策划设计/整体设计.xlsx
+++ b/design/策划设计/整体设计.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\RE0\design\策划设计\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C6E2B-3DD5-425C-B35F-4731B89436AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +25,197 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>游戏背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC与事件互动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机地形生成与奇遇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【委托】找亲戚、找岳父；要凑路费；要拜师（发奖励）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【声望】势力、城市影响力——新闻系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【伴侣】NPC好感度，影响随机事件、议价能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挣钱→类似境界的养成？（不需要在游戏体现，就说突破到XXX需要XXX资源，高境界可以接触更高级的商品，加杠杆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人属性（基础设定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>境界升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【打野】随机地形中的怪物，影响货物和金钱，限制玩家的跑商阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>税收系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【奇遇】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似侠客风云传 每达成一个事件可能就是一个结局，最后主线完成后统计完成了什么结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那就是中间要有主角死亡事件/或者是大阶段非随机剧情：比如怪物攻城、灵气枯竭、域外天魔啥的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【故事轮回】 或者是每一次轮回，资质迭代。资质的提升需要①人生成就点（事件、结局）②跑商程度（赚了多少） 但是这样就限制我们第一次轮回无法让玩家到达很远的地方，对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有伴侣/有主动功法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发迭代奖励前提：达成某种结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿命 抢劫 瘟疫 暗杀   圆寂（可以在第一次玩家到达某个节点给？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资质迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市的主要功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">事件 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修炼场所与功法（提升境界/属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC——那NPC还要分好几类/几种功能NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期货市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱庄    （暂定——钱币:灵石 可以抗风险，但是就兑换成对应凭证，就和钱庄信用挂钩了。但是这个系统比较恶心玩家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>府邸洞天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城主：行政官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【阵营】影响委托。城市也分阵营。跨阵营跑商受益高，但是风险很大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镖局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,11 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +260,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>608677</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE2062E1-E7B0-496B-97A1-F28E795AFA09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="0"/>
+          <a:ext cx="7380952" cy="6866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +573,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:I23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB700F0B-43C8-40C4-B032-E4A2C4DAF2D0}">
+  <dimension ref="B2:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="110" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>